--- a/catalogusdata/BAG/Beslisboom VBO BAG T.xlsx
+++ b/catalogusdata/BAG/Beslisboom VBO BAG T.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\wsc20785\Documents\Projecten\Kadaster\Data\Bag handshake\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\LDT upload\catalogus\catalogusdata\BAG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="URI schema" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="175">
   <si>
     <t>tabblad</t>
   </si>
@@ -35,9 +35,6 @@
     <t>klasse</t>
   </si>
   <si>
-    <t>uri schema</t>
-  </si>
-  <si>
     <t>Concept</t>
   </si>
   <si>
@@ -200,9 +197,6 @@
     <t>http://purl.org/iso25964/skos-thes#{eigenschap}</t>
   </si>
   <si>
-    <t>testDomein</t>
-  </si>
-  <si>
     <t>member</t>
   </si>
   <si>
@@ -257,18 +251,12 @@
     <t>subklasse</t>
   </si>
   <si>
-    <t>Lichaamsdelen</t>
-  </si>
-  <si>
     <t>http://bp4mc2.org/def/skos-lex#{subklasse}</t>
   </si>
   <si>
     <t>Text</t>
   </si>
   <si>
-    <t>http://purl.org/dc/dcmitype/{subklasse}</t>
-  </si>
-  <si>
     <t>http://purl.org/dc/terms/{eigenschap}</t>
   </si>
   <si>
@@ -305,9 +293,6 @@
     <t>http://data.test.pdok.nl/catalogus/bag/id/collection/{collectie}</t>
   </si>
   <si>
-    <t>http://data.test.pdok.nl/catalogus/bag/id/collection/{waardelijst}</t>
-  </si>
-  <si>
     <t>GedeeldeVerkeersruimte</t>
   </si>
   <si>
@@ -335,30 +320,15 @@
     <t>Wet basisregistraties adressen en gebouwen</t>
   </si>
   <si>
-    <t>&lt;http://wetten.overheid.nl/jci1.3:c:BWBR0023466&gt;</t>
-  </si>
-  <si>
-    <t>&lt;https://zoek.officielebekendmakingen.nl/kst-30968-3.html&gt;</t>
-  </si>
-  <si>
     <t>Memorie van toelichting bij de Wet basisregistraties adressen en gebouwen</t>
   </si>
   <si>
-    <t>&lt;https://www.parlementairemonitor.nl/9353000/1/j9vvij5epmj1ey0/vk57jvazlov8&gt;</t>
-  </si>
-  <si>
     <t>Memorie van toelichting bij de wijziging van de Wet basisregistraties adressen en gebouwen en de Kadasterwet</t>
   </si>
   <si>
-    <t>&lt;https://www.nen.nl/NEN-Shop/Norm/NEN-25802007-nl.htm&gt;</t>
-  </si>
-  <si>
     <t>NEN 2580:2007</t>
   </si>
   <si>
-    <t>&lt;https://zoek.officielebekendmakingen.nl/kst-31726-7.html&gt;</t>
-  </si>
-  <si>
     <t>Wijzigingen van de Wet basisregistraties adressen en gebouwen en de Kadasterwet</t>
   </si>
   <si>
@@ -398,15 +368,9 @@
     <t>Verblijfsobject_Vraag9</t>
   </si>
   <si>
-    <t>&lt;http://www.kadaster.nl/web/artikel/download/BAG-stappenplan-afbakenen-studentencomplexen.htm&gt;</t>
-  </si>
-  <si>
     <t>BAG stappenplan afbakenen studentencomplexen</t>
   </si>
   <si>
-    <t>&lt;http://www.omg.org/spec/UML/ISO/19505-1/PDF/&gt;</t>
-  </si>
-  <si>
     <t>Information technology - Object Management Group Unified Modeling Language (OMG UML), Infrastructure</t>
   </si>
   <si>
@@ -425,9 +389,6 @@
     <t>Bouwbesluit2012</t>
   </si>
   <si>
-    <t>&lt;http://wetten.overheid.nl/BWBR0030461&gt;</t>
-  </si>
-  <si>
     <t>Bouwbesluit 2013</t>
   </si>
   <si>
@@ -444,9 +405,6 @@
   </si>
   <si>
     <t>SpecfiekeRegelsVoorReceptiesBijDeToegangVanEenGebouw</t>
-  </si>
-  <si>
-    <t>&lt;https://zoek.officielebekendmakingen.nl/kst-31726-2.html&gt;</t>
   </si>
   <si>
     <t>Wijziging van de Wet basisregistraties adressen en gebouwen en de Kadasterwet (aanvulling, verduidelijking en enige technische verbeteringen van de Wet basisregistraties adressen en gebouwen en aanvulling van de Kadasterwet in verband met de toedeling van taken aan de Dienst voor het kadaster en de openbare registers ten aanzien van de landelijke voorziening voor de basisregistraties adressen en gebouwen)</t>
@@ -485,6 +443,60 @@
     <t>Een verblijfsobject is een eenheid van gebruik die bestaat uit een of meerdere binnenruimten binnen een of meerdere panden. Deze binnenruimten moeten voldoen aan de definitie van een binnenruimte volgens NEN 2580:2007. Een verblijfsobject moet over de volledige hoogte zijn omsloten door wanden en een dichte plafond- of dakconstructie en een dichte vloerconstructie hebben. Beweegbare delen in de gevel, het dak of de laagstgelegen vloer, zoals deuren en ramen, te openen lichtkappen en kruipluiken worden op grond van NEN 2580:2007 niet als permanente openingen beschouwd. Hetzelfde geldt voor ventilatieopeningen en -kanalen in de gevel, in het dak of in de vloer, zelfs als deze niet afsluitbaar zijn. Hekken, roosterwerken en gaasafzettingen zijn op grond van NEN 2580:2007 wel permanente openingen. Verblijfsobjecten zijn bij de totstandkoming van een pand volledig gelegen binnen dat pand.
 Na een verbouwing kan een verblijfsobject zich uitstrekken over meerdere aaneengesloten panden.
 Definities uit NEN 2580:2007 zijn overgenomen met toestemming van NEN te Delft, www.nen.nl.</t>
+  </si>
+  <si>
+    <t>Een verblijfsobject moet beschikken over een of meerdere eigen afsluitbare toegangen vanaf de openbare weg, een eigen erf en/of een gedeelde verkeersruimte, tenzij een specifieke regel in deze catalogus toestaat dat een verblijfsobject is ontsloten via een ander verblijfsobject.</t>
+  </si>
+  <si>
+    <t>Een verblijfsobject is voor mensen toegankelijk en heeft voldoende stahoogte voor een volwassen persoon met een gemiddeld postuur.
+Een verblijfsobject moet beschikken over een of meerdere verticale toegangsdeuren. Een ruimte die uitsluitend beschikt over andersoortige toegangen, zoals een horizontaal toegangsluik, wordt niet als verblijfsobject afgebakend.</t>
+  </si>
+  <si>
+    <t>Een verblijfsobject moet exclusief te gebruiken zijn. Alle toegangen van een verblijfsobject moeten daarom afsluitbaar zijn. Sloten en beweegbare delen in de gevel, het dak of de laagstgelegen vloer, zoals deuren en ramen, te openen lichtkappen en kruipluiken hoeven niet aanwezig zijn, mits deze wel eenvoudig kunnen worden geplaatst.
+Omdat een gedeelde verkeersruimte een gemeenschappelijke ruimte is die niet exclusief ten dienste staat van enig verblijfsobject, kan deze nooit deel uitmaken van een verblijfsobject.</t>
+  </si>
+  <si>
+    <t>Een ruimte die niet onderwerp kan zijn van goederenrechtelijke rechtshandelingen, zoals koop en verkoop, bijvoorbeeld een hotelkamer, een slaapruimte in een verzorgingshuis of een cel in een gevangenis, kan geen verblijfsobject zijn.</t>
+  </si>
+  <si>
+    <t>Een dienstbare ruimte die exclusief ondersteunend is aan een nabijgelegen verblijfsobject, standplaats of ligplaats, wordt niet als verblijfsobject afgebakend, bijvoorbeeld een kelderbox bij een flatwoning.
+Andere dienstbare ruimten worden afgebakend als verblijfsobject als ze aan de definitie van een verblijfsobject voldoen, bijvoorbeeld garageboxen onder of bij een flatgebouw of afgelegen stallen.
+Een ruimte die niet langer dienstbaar is, wordt afgebakend als verblijfsobject als deze ruimte voldoet aan de definitie van een verblijfsobject, ongeacht of de ruimte zich bevindt in een aangebouwd bouwwerk of niet, bijvoorbeeld als een vrijstaande schuur bij een boerderij wordt omgebouwd tot kampeerboerderij.</t>
+  </si>
+  <si>
+    <t>Een verblijfsobject moet ondeelbaar zijn en mag bij de afbakening niet kunnen worden opgedeeld in kleinere eenheden die elk afzonderlijk aan de definitie van een verblijfsobject voldoen.</t>
+  </si>
+  <si>
+    <t>Voor de afbakening van verblijfsobjecten geldt een uitzondering:
+* Meerdere afgelegen ruimten bij elkaar:
+Als er meerdere afgelegen dienstbare ruimten, zoals stallen, schuren, kassen, garageboxen of schaapskooien, bij elkaar liggen en deze functioneel bij elkaar horen en meerdere van deze ruimten afzonderlijk kunnen voldoen aan de definitie van een verblijfsobject, dan wordt slechts een van deze ruimten afgebakend als verblijfsobject. Als de ruimten (deels) niet functioneel bij elkaar horen, dan geldt deze uitzondering per cluster van ruimten die functioneel bij elkaar horen. Er worden in totaal evenveel verblijfsobjecten afgebakend als dat er clusters worden onderscheiden.</t>
+  </si>
+  <si>
+    <t>Bron</t>
+  </si>
+  <si>
+    <t>WetBAG</t>
+  </si>
+  <si>
+    <t>MemWetBAG</t>
+  </si>
+  <si>
+    <t>MemWijzWetBAG</t>
+  </si>
+  <si>
+    <t>WijzWetBAG</t>
+  </si>
+  <si>
+    <t>BAGStudComp</t>
+  </si>
+  <si>
+    <t>UML</t>
+  </si>
+  <si>
+    <t>Bouwbesluit2013</t>
+  </si>
+  <si>
+    <t>AanvWetBAG</t>
   </si>
   <si>
     <t>Een verblijfsobject is een eenheid van gebruik die bestaat uit een of meerdere binnenruimten binnen een of meerdere panden. Deze binnenruimten moeten voldoen aan de definitie van een binnenruimte volgens NEN 2580:2007. Een verblijfsobject moet over de volledige hoogte zijn omsloten door wanden en een dichte plafond- of dakconstructie en een dichte vloerconstructie hebben. Beweegbare delen in de gevel, het dak of de laagstgelegen vloer, zoals deuren en ramen, te openen lichtkappen en kruipluiken worden op grond van NEN 2580:2007 niet als permanente openingen beschouwd. Hetzelfde geldt voor ventilatieopeningen en -kanalen in de gevel, in het dak of in de vloer, zelfs als deze niet afsluitbaar zijn. Hekken, roosterwerken en gaasafzettingen zijn op grond van NEN 2580:2007 wel permanente openingen. Verblijfsobjecten zijn bij de totstandkoming van een pand volledig gelegen binnen dat pand.
@@ -495,8 +507,8 @@
  skos:prefLabel "Verblijfsobject_Vraag2";
  rdfs:label "2. Is er binnen de ruimte sprake van aaneengesloten samenhangend gebruik?";
  skos:semanticRelation concept:Bouwbesluit2012;
- dct:source &lt;https://zoek.officielebekendmakingen.nl/kst-30968-3.html&gt;;
- dct:source &lt;http://wetten.overheid.nl/BWBR0030461&gt;;
+ dct:source &lt;MemWetBAG&gt;;
+ dct:source &lt;Bouwbesluit2013&gt;;
  skos:scopeNote '''Bij een verblijfsobject staat het samenhangende gebruik van een ruimte centraal. Er dient in ruimtelijke zin sprake te zijn van een eenheid van gebruik. Er kan alleen sprake zijn van een eenheid van gebruik als die eenheid exclusief beschikt over alle basisvoorzieningen die zijn vereist voor alle gebruiksdoelen van het verblijfsobject. Per gebruiksdoel zijn de minimaal vereiste basisvoorzieningen:
 * Bijeenkomstfunctie: water, toilet.
 * Celfunctie: water, toilet.
@@ -517,31 +529,61 @@
 De binnenruimten van een verblijfsobject moeten onderling binnendoor bereikbaar zijn zonder het verblijfsobject te verlaten. Binnenruimten aan weerszijden van bouwkundige scheidingsconstructies tussen bouwwerken die tezamen een ondeelbare eenheid vormen in de afbakening van panden (zie stap 2 van paragraaf 10.6) en die elk alleen daarom niet zelfstandig voldoen aan de definitie van een pand, worden hierbij geacht onderling binnendoor bereikbaar te zijn als het ontbreken van openingen in dergelijke scheidingsconstructies de enige belemmering vormt om een groter verblijfsobject af te bakenen. Zo maakt een garagebox die rechtstreeks tegen een woning is aangebouwd en exclusief ondersteunend is aan de woning, samen met de woning deel uit van hetzelfde verblijfsobject, ongeacht of de garagebox vanuit de woning alleen te bereiken is door in de openlucht te komen.</t>
   </si>
   <si>
-    <t>Een verblijfsobject moet beschikken over een of meerdere eigen afsluitbare toegangen vanaf de openbare weg, een eigen erf en/of een gedeelde verkeersruimte, tenzij een specifieke regel in deze catalogus toestaat dat een verblijfsobject is ontsloten via een ander verblijfsobject.</t>
-  </si>
-  <si>
-    <t>Een verblijfsobject is voor mensen toegankelijk en heeft voldoende stahoogte voor een volwassen persoon met een gemiddeld postuur.
-Een verblijfsobject moet beschikken over een of meerdere verticale toegangsdeuren. Een ruimte die uitsluitend beschikt over andersoortige toegangen, zoals een horizontaal toegangsluik, wordt niet als verblijfsobject afgebakend.</t>
-  </si>
-  <si>
-    <t>Een verblijfsobject moet exclusief te gebruiken zijn. Alle toegangen van een verblijfsobject moeten daarom afsluitbaar zijn. Sloten en beweegbare delen in de gevel, het dak of de laagstgelegen vloer, zoals deuren en ramen, te openen lichtkappen en kruipluiken hoeven niet aanwezig zijn, mits deze wel eenvoudig kunnen worden geplaatst.
-Omdat een gedeelde verkeersruimte een gemeenschappelijke ruimte is die niet exclusief ten dienste staat van enig verblijfsobject, kan deze nooit deel uitmaken van een verblijfsobject.</t>
-  </si>
-  <si>
-    <t>Een ruimte die niet onderwerp kan zijn van goederenrechtelijke rechtshandelingen, zoals koop en verkoop, bijvoorbeeld een hotelkamer, een slaapruimte in een verzorgingshuis of een cel in een gevangenis, kan geen verblijfsobject zijn.</t>
-  </si>
-  <si>
-    <t>Een dienstbare ruimte die exclusief ondersteunend is aan een nabijgelegen verblijfsobject, standplaats of ligplaats, wordt niet als verblijfsobject afgebakend, bijvoorbeeld een kelderbox bij een flatwoning.
-Andere dienstbare ruimten worden afgebakend als verblijfsobject als ze aan de definitie van een verblijfsobject voldoen, bijvoorbeeld garageboxen onder of bij een flatgebouw of afgelegen stallen.
-Een ruimte die niet langer dienstbaar is, wordt afgebakend als verblijfsobject als deze ruimte voldoet aan de definitie van een verblijfsobject, ongeacht of de ruimte zich bevindt in een aangebouwd bouwwerk of niet, bijvoorbeeld als een vrijstaande schuur bij een boerderij wordt omgebouwd tot kampeerboerderij.</t>
-  </si>
-  <si>
-    <t>Een verblijfsobject moet ondeelbaar zijn en mag bij de afbakening niet kunnen worden opgedeeld in kleinere eenheden die elk afzonderlijk aan de definitie van een verblijfsobject voldoen.</t>
-  </si>
-  <si>
-    <t>Voor de afbakening van verblijfsobjecten geldt een uitzondering:
-* Meerdere afgelegen ruimten bij elkaar:
-Als er meerdere afgelegen dienstbare ruimten, zoals stallen, schuren, kassen, garageboxen of schaapskooien, bij elkaar liggen en deze functioneel bij elkaar horen en meerdere van deze ruimten afzonderlijk kunnen voldoen aan de definitie van een verblijfsobject, dan wordt slechts een van deze ruimten afgebakend als verblijfsobject. Als de ruimten (deels) niet functioneel bij elkaar horen, dan geldt deze uitzondering per cluster van ruimten die functioneel bij elkaar horen. Er worden in totaal evenveel verblijfsobjecten afgebakend als dat er clusters worden onderscheiden.</t>
+    <t>NEN2580</t>
+  </si>
+  <si>
+    <t>NEN2850</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/dcmitype/{subklasse}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bronnen </t>
+  </si>
+  <si>
+    <t>http://{source}</t>
+  </si>
+  <si>
+    <t>wetten.overheid.nl/jci1.3:c:BWBR0023466</t>
+  </si>
+  <si>
+    <t>zoek.officielebekendmakingen.nl/kst-30968-3.html</t>
+  </si>
+  <si>
+    <t>www.parlementairemonitor.nl/9353000/1/j9vvij5epmj1ey0/vk57jvazlov8</t>
+  </si>
+  <si>
+    <t>www.nen.nl/NEN-Shop/Norm/NEN-25802007-nl.htm</t>
+  </si>
+  <si>
+    <t>zoek.officielebekendmakingen.nl/kst-31726-7.html</t>
+  </si>
+  <si>
+    <t>www.kadaster.nl/web/artikel/download/BAG-stappenplan-afbakenen-studentencomplexen.htm</t>
+  </si>
+  <si>
+    <t>www.omg.org/spec/UML/ISO/19505-1/PDF/</t>
+  </si>
+  <si>
+    <t>wetten.overheid.nl/BWBR0030461</t>
+  </si>
+  <si>
+    <t>zoek.officielebekendmakingen.nl/kst-31726-2.html</t>
+  </si>
+  <si>
+    <t>http://bag.basisregistraties.overheid.nl/som/def#{eigenschap}</t>
+  </si>
+  <si>
+    <t>uri schema</t>
+  </si>
+  <si>
+    <t>http://data.test.pdok.nl/catalogus/bag/id/collection/{waardelijst}</t>
+  </si>
+  <si>
+    <t>testDomein</t>
+  </si>
+  <si>
+    <t>Lichaamsdelen</t>
   </si>
 </sst>
 </file>
@@ -931,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,284 +999,306 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>85</v>
+        <v>170</v>
+      </c>
+      <c r="E8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
         <v>66</v>
       </c>
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" t="s">
         <v>68</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="2"/>
+      <c r="A23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="2"/>
+      <c r="A24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D25" s="2"/>
@@ -1292,31 +1356,37 @@
     </row>
     <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1"/>
     <hyperlink ref="D6" r:id="rId2" location="{eigenschap}"/>
-    <hyperlink ref="D11" r:id="rId3"/>
-    <hyperlink ref="D12" r:id="rId4"/>
-    <hyperlink ref="D13" r:id="rId5"/>
-    <hyperlink ref="D14" r:id="rId6"/>
-    <hyperlink ref="D15" r:id="rId7"/>
-    <hyperlink ref="D17" r:id="rId8"/>
-    <hyperlink ref="D18" r:id="rId9"/>
-    <hyperlink ref="D8" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId3"/>
+    <hyperlink ref="D13" r:id="rId4"/>
+    <hyperlink ref="D14" r:id="rId5"/>
+    <hyperlink ref="D15" r:id="rId6"/>
+    <hyperlink ref="D16" r:id="rId7"/>
+    <hyperlink ref="D18" r:id="rId8"/>
+    <hyperlink ref="D19" r:id="rId9"/>
+    <hyperlink ref="D9" r:id="rId10"/>
     <hyperlink ref="D7" r:id="rId11" location="{eigenschap}"/>
     <hyperlink ref="D2" r:id="rId12" location="{klasse}"/>
-    <hyperlink ref="D9" r:id="rId13" location="{subklasse}"/>
-    <hyperlink ref="D10" r:id="rId14"/>
-    <hyperlink ref="D22" r:id="rId15"/>
-    <hyperlink ref="D21" r:id="rId16"/>
-    <hyperlink ref="D19" r:id="rId17"/>
-    <hyperlink ref="D20" r:id="rId18"/>
-    <hyperlink ref="D16" r:id="rId19"/>
+    <hyperlink ref="D10" r:id="rId13" location="{subklasse}"/>
+    <hyperlink ref="D11" r:id="rId14"/>
+    <hyperlink ref="D23" r:id="rId15"/>
+    <hyperlink ref="D22" r:id="rId16"/>
+    <hyperlink ref="D17" r:id="rId17"/>
+    <hyperlink ref="D8" r:id="rId18" location="{eigenschap}"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D3" r:id="rId21" location="{eigenschap}"/>
+    <hyperlink ref="D4" r:id="rId22" location="{eigenschap}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -1324,8 +1394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,607 +1416,624 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>43</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
         <v>45</v>
       </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
         <v>48</v>
       </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
         <v>51</v>
       </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>52</v>
-      </c>
-      <c r="E14" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
         <v>54</v>
       </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>55</v>
-      </c>
-      <c r="E15" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
         <v>60</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="E21" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="D34" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>30</v>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1987,8 +2074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2009,73 +2096,73 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C2"/>
       <c r="D2" s="5"/>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
-      <c r="I2" t="s">
-        <v>103</v>
+      <c r="I2" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="J2"/>
       <c r="K2" s="5"/>
@@ -2083,27 +2170,29 @@
       <c r="M2"/>
       <c r="N2" s="5"/>
       <c r="O2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="P2"/>
     </row>
-    <row r="3" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C3"/>
       <c r="D3" s="5"/>
       <c r="E3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>138</v>
+      </c>
       <c r="G3"/>
       <c r="H3"/>
-      <c r="I3" t="s">
-        <v>104</v>
+      <c r="I3" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="J3"/>
       <c r="K3" s="5"/>
@@ -2111,29 +2200,29 @@
       <c r="M3"/>
       <c r="N3" s="5"/>
       <c r="O3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="P3"/>
     </row>
     <row r="4" spans="1:16" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C4"/>
       <c r="D4" s="5"/>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="I4" t="s">
-        <v>104</v>
+      <c r="I4" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="J4"/>
       <c r="K4" s="5"/>
@@ -2141,27 +2230,29 @@
       <c r="M4"/>
       <c r="N4" s="5"/>
       <c r="O4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="P4"/>
     </row>
-    <row r="5" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C5"/>
       <c r="D5" s="5"/>
       <c r="E5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>155</v>
+      </c>
       <c r="G5"/>
       <c r="H5"/>
-      <c r="I5" t="s">
-        <v>133</v>
+      <c r="I5" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="J5"/>
       <c r="K5" s="5"/>
@@ -2173,23 +2264,23 @@
     </row>
     <row r="6" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C6"/>
       <c r="D6" s="5"/>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="I6" t="s">
-        <v>103</v>
+      <c r="I6" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="J6"/>
       <c r="K6" s="5"/>
@@ -2197,27 +2288,29 @@
       <c r="M6"/>
       <c r="N6" s="5"/>
       <c r="O6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="P6"/>
     </row>
     <row r="7" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C7"/>
       <c r="D7" s="5"/>
       <c r="E7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="I7" t="s">
-        <v>140</v>
+      <c r="I7" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="J7"/>
       <c r="K7" s="5"/>
@@ -2225,23 +2318,25 @@
       <c r="M7"/>
       <c r="N7" s="5"/>
       <c r="O7" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="P7"/>
     </row>
     <row r="8" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C8"/>
       <c r="D8" s="5"/>
       <c r="E8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
@@ -2251,23 +2346,25 @@
       <c r="M8"/>
       <c r="N8" s="5"/>
       <c r="O8" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="P8"/>
     </row>
     <row r="9" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C9"/>
       <c r="D9" s="5"/>
       <c r="E9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
@@ -2277,23 +2374,25 @@
       <c r="M9"/>
       <c r="N9" s="5"/>
       <c r="O9" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="P9"/>
     </row>
     <row r="10" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C10"/>
       <c r="D10" s="5"/>
       <c r="E10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F10" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -2303,24 +2402,24 @@
       <c r="M10"/>
       <c r="N10" s="5"/>
       <c r="O10" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="P10"/>
     </row>
     <row r="11" spans="1:16" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C11"/>
       <c r="D11" s="5"/>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -2331,23 +2430,25 @@
       <c r="M11"/>
       <c r="N11" s="5"/>
       <c r="O11" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C12"/>
       <c r="D12" s="5"/>
       <c r="E12" t="s">
-        <v>112</v>
-      </c>
-      <c r="F12" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>140</v>
+      </c>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
@@ -2357,29 +2458,29 @@
       <c r="M12"/>
       <c r="N12" s="5"/>
       <c r="O12" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="P12"/>
     </row>
     <row r="13" spans="1:16" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C13"/>
       <c r="D13" s="5"/>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
-      <c r="I13" t="s">
-        <v>103</v>
+      <c r="I13" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="J13"/>
       <c r="K13" s="5"/>
@@ -2387,27 +2488,29 @@
       <c r="M13"/>
       <c r="N13" s="5"/>
       <c r="O13" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="P13"/>
     </row>
-    <row r="14" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C14"/>
       <c r="D14" s="5"/>
       <c r="E14" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>141</v>
+      </c>
       <c r="G14"/>
       <c r="H14"/>
-      <c r="I14" t="s">
-        <v>140</v>
+      <c r="I14" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="J14"/>
       <c r="K14" s="5"/>
@@ -2417,23 +2520,25 @@
       <c r="O14"/>
       <c r="P14"/>
     </row>
-    <row r="15" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C15"/>
       <c r="D15" s="5"/>
       <c r="E15" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>141</v>
+      </c>
       <c r="G15"/>
       <c r="H15"/>
-      <c r="I15" t="s">
-        <v>104</v>
+      <c r="I15" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="J15"/>
       <c r="K15" s="5"/>
@@ -2445,23 +2550,23 @@
     </row>
     <row r="16" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C16"/>
       <c r="D16" s="5"/>
       <c r="E16" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
-      <c r="I16" t="s">
-        <v>103</v>
+      <c r="I16" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="J16"/>
       <c r="K16" s="5"/>
@@ -2469,27 +2574,29 @@
       <c r="M16"/>
       <c r="N16" s="5"/>
       <c r="O16" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="P16"/>
     </row>
     <row r="17" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B17" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C17"/>
       <c r="D17" s="5"/>
       <c r="E17" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="G17"/>
       <c r="H17"/>
-      <c r="I17" t="s">
-        <v>110</v>
+      <c r="I17" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="J17"/>
       <c r="K17" s="5"/>
@@ -2501,21 +2608,23 @@
     </row>
     <row r="18" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C18"/>
       <c r="D18" s="5"/>
       <c r="E18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18"/>
+        <v>102</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="G18"/>
       <c r="H18"/>
-      <c r="I18" t="s">
-        <v>108</v>
+      <c r="I18" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="J18"/>
       <c r="K18" s="5"/>
@@ -2527,23 +2636,23 @@
     </row>
     <row r="19" spans="1:22" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C19"/>
       <c r="D19" s="5"/>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
-      <c r="I19" t="s">
-        <v>103</v>
+      <c r="I19" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="J19"/>
       <c r="K19" s="5"/>
@@ -2559,88 +2668,117 @@
       <c r="U19"/>
       <c r="V19"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E20" t="s">
-        <v>112</v>
-      </c>
-      <c r="I20" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="E21" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F21" t="s">
-        <v>159</v>
-      </c>
-      <c r="I21" t="s">
-        <v>103</v>
+        <v>144</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="E22" t="s">
-        <v>112</v>
-      </c>
-      <c r="I22" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="F22" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E23" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="I23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
-      </c>
-      <c r="I24" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" display="http://wetten.overheid.nl/jci1.3:c:BWBR0023466"/>
+    <hyperlink ref="I3" r:id="rId2" display="https://zoek.officielebekendmakingen.nl/kst-30968-3.html"/>
+    <hyperlink ref="I13" r:id="rId3" display="http://wetten.overheid.nl/jci1.3:c:BWBR0023466"/>
+    <hyperlink ref="I14" r:id="rId4" display="https://zoek.officielebekendmakingen.nl/kst-31726-2.html"/>
+    <hyperlink ref="I15" r:id="rId5" display="https://zoek.officielebekendmakingen.nl/kst-30968-3.html"/>
+    <hyperlink ref="I16" r:id="rId6" display="http://wetten.overheid.nl/jci1.3:c:BWBR0023466"/>
+    <hyperlink ref="I17" r:id="rId7" display="https://zoek.officielebekendmakingen.nl/kst-31726-7.html"/>
+    <hyperlink ref="I18" r:id="rId8" display="https://www.nen.nl/NEN-Shop/Norm/NEN-25802007-nl.htm"/>
+    <hyperlink ref="I19" r:id="rId9" display="http://wetten.overheid.nl/jci1.3:c:BWBR0023466"/>
+    <hyperlink ref="I20" r:id="rId10" display="https://zoek.officielebekendmakingen.nl/kst-30968-3.html"/>
+    <hyperlink ref="I21" r:id="rId11" display="http://wetten.overheid.nl/jci1.3:c:BWBR0023466"/>
+    <hyperlink ref="I22" r:id="rId12" display="https://zoek.officielebekendmakingen.nl/kst-30968-3.html"/>
+    <hyperlink ref="I23" r:id="rId13" display="http://wetten.overheid.nl/jci1.3:c:BWBR0023466"/>
+    <hyperlink ref="I24" r:id="rId14" display="https://zoek.officielebekendmakingen.nl/kst-30968-3.html"/>
+    <hyperlink ref="I4" r:id="rId15" display="https://zoek.officielebekendmakingen.nl/kst-30968-3.html"/>
+    <hyperlink ref="I5" r:id="rId16" display="http://wetten.overheid.nl/BWBR0030461"/>
+    <hyperlink ref="I6" r:id="rId17" display="http://wetten.overheid.nl/jci1.3:c:BWBR0023466"/>
+    <hyperlink ref="I7" r:id="rId18" display="https://zoek.officielebekendmakingen.nl/kst-31726-2.html"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -2649,7 +2787,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2661,170 +2799,170 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="G2" s="8">
         <v>42933</v>
       </c>
       <c r="H2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" t="s">
-        <v>108</v>
+        <v>102</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="H3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F4" t="s">
-        <v>124</v>
+        <v>102</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="H4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" t="s">
-        <v>126</v>
+        <v>102</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="H5" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="H6" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="H7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="H8" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" t="s">
         <v>112</v>
-      </c>
-      <c r="H9" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2858,69 +2996,54 @@
       <c r="G20" s="8"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="https://zoek.officielebekendmakingen.nl/kst-30968-3.html"/>
+    <hyperlink ref="F3" r:id="rId2" display="https://www.nen.nl/NEN-Shop/Norm/NEN-25802007-nl.htm"/>
+    <hyperlink ref="F4" r:id="rId3" display="http://www.kadaster.nl/web/artikel/download/BAG-stappenplan-afbakenen-studentencomplexen.htm"/>
+    <hyperlink ref="F5" r:id="rId4" display="http://www.omg.org/spec/UML/ISO/19505-1/PDF/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="8"/>
+        <v>174</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2928,8 +3051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2937,140 +3060,200 @@
     <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>104</v>
+      <c r="A3" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>27</v>
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>106</v>
+      <c r="A4" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>108</v>
+      <c r="A5" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>110</v>
+      <c r="A6" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>124</v>
+      <c r="A7" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>126</v>
+      <c r="A8" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>140</v>
+      <c r="A10" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" display="https://www.nen.nl/NEN-Shop/Norm/NEN-25802007-nl.htm"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://zoek.officielebekendmakingen.nl/kst-30968-3.html"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://www.parlementairemonitor.nl/9353000/1/j9vvij5epmj1ey0/vk57jvazlov8"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://zoek.officielebekendmakingen.nl/kst-31726-7.html"/>
+    <hyperlink ref="A7" r:id="rId5" display="http://www.kadaster.nl/web/artikel/download/BAG-stappenplan-afbakenen-studentencomplexen.htm"/>
+    <hyperlink ref="A8" r:id="rId6" display="http://www.omg.org/spec/UML/ISO/19505-1/PDF/"/>
+    <hyperlink ref="A10" r:id="rId7" display="https://zoek.officielebekendmakingen.nl/kst-31726-2.html"/>
+    <hyperlink ref="A2" r:id="rId8" display="http://wetten.overheid.nl/jci1.3:c:BWBR0023466"/>
+    <hyperlink ref="E5" r:id="rId9"/>
+    <hyperlink ref="E3" r:id="rId10" display="https://zoek.officielebekendmakingen.nl/kst-30968-3.html"/>
+    <hyperlink ref="E4" r:id="rId11"/>
+    <hyperlink ref="E6" r:id="rId12" display="https://zoek.officielebekendmakingen.nl/kst-31726-7.html"/>
+    <hyperlink ref="E7" r:id="rId13"/>
+    <hyperlink ref="E8" r:id="rId14"/>
+    <hyperlink ref="E10" r:id="rId15" display="https://zoek.officielebekendmakingen.nl/kst-31726-2.html"/>
+    <hyperlink ref="E2" r:id="rId16" display="http://wetten.overheid.nl/jci1.3:c:BWBR0023466"/>
+    <hyperlink ref="E9" r:id="rId17" display="http://wetten.overheid.nl/BWBR0030461"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/catalogusdata/BAG/Beslisboom VBO BAG T.xlsx
+++ b/catalogusdata/BAG/Beslisboom VBO BAG T.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="URI schema" sheetId="1" r:id="rId1"/>
@@ -975,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,14 +1376,14 @@
     <hyperlink ref="D2" r:id="rId12" location="{klasse}"/>
     <hyperlink ref="D10" r:id="rId13" location="{subklasse}"/>
     <hyperlink ref="D11" r:id="rId14"/>
-    <hyperlink ref="D23" r:id="rId15"/>
-    <hyperlink ref="D22" r:id="rId16"/>
-    <hyperlink ref="D17" r:id="rId17"/>
-    <hyperlink ref="D8" r:id="rId18" location="{eigenschap}"/>
-    <hyperlink ref="D20" r:id="rId19"/>
-    <hyperlink ref="D21" r:id="rId20"/>
-    <hyperlink ref="D3" r:id="rId21" location="{eigenschap}"/>
-    <hyperlink ref="D4" r:id="rId22" location="{eigenschap}"/>
+    <hyperlink ref="D22" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D8" r:id="rId17" location="{eigenschap}"/>
+    <hyperlink ref="D20" r:id="rId18"/>
+    <hyperlink ref="D21" r:id="rId19"/>
+    <hyperlink ref="D3" r:id="rId20" location="{eigenschap}"/>
+    <hyperlink ref="D4" r:id="rId21" location="{eigenschap}"/>
+    <hyperlink ref="D23" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
@@ -1394,8 +1394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3051,8 +3051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/catalogusdata/BAG/Beslisboom VBO BAG T.xlsx
+++ b/catalogusdata/BAG/Beslisboom VBO BAG T.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="190">
   <si>
     <t>tabblad</t>
   </si>
@@ -251,9 +251,6 @@
     <t>subklasse</t>
   </si>
   <si>
-    <t>http://bp4mc2.org/def/skos-lex#{subklasse}</t>
-  </si>
-  <si>
     <t>Text</t>
   </si>
   <si>
@@ -312,9 +309,6 @@
   </si>
   <si>
     <t>Voorbeeld</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bp4mc2/bp4mc2/master/catalogusdata/BAG/voorbeelden/{voorbeeld}</t>
   </si>
   <si>
     <t>Wet basisregistraties adressen en gebouwen</t>
@@ -538,9 +532,6 @@
     <t>http://purl.org/dc/dcmitype/{subklasse}</t>
   </si>
   <si>
-    <t xml:space="preserve">Bronnen </t>
-  </si>
-  <si>
     <t>http://{source}</t>
   </si>
   <si>
@@ -584,6 +575,60 @@
   </si>
   <si>
     <t>Lichaamsdelen</t>
+  </si>
+  <si>
+    <t>dct</t>
+  </si>
+  <si>
+    <t>thes</t>
+  </si>
+  <si>
+    <t>http://xmlns.com/foaf/0.1/{eigenschap}</t>
+  </si>
+  <si>
+    <t>foaf</t>
+  </si>
+  <si>
+    <t>http://data.test.pdok.nl/catalogus/bag/id/concept/{domein}</t>
+  </si>
+  <si>
+    <t>focus</t>
+  </si>
+  <si>
+    <t>http://data.test.pdok.nl/catalogus/bag/id/concept/{focus}</t>
+  </si>
+  <si>
+    <t>hetzelfde</t>
+  </si>
+  <si>
+    <t>http://data.test.pdok.nl/catalogus/bag/id/concept/{hetzelfde}</t>
+  </si>
+  <si>
+    <t>gerelateerd</t>
+  </si>
+  <si>
+    <t>http://data.test.pdok.nl/catalogus/bag/id/concept/{gerelateerd}</t>
+  </si>
+  <si>
+    <t>brederdan</t>
+  </si>
+  <si>
+    <t>http://data.test.pdok.nl/catalogus/bag/id/concept/{brederdan}</t>
+  </si>
+  <si>
+    <t>engerdan</t>
+  </si>
+  <si>
+    <t>http://data.test.pdok.nl/catalogus/bag/id/concept/{engerdan}</t>
+  </si>
+  <si>
+    <t>Toeleidingsbegrippen</t>
+  </si>
+  <si>
+    <t>toeleidingsbegrip</t>
+  </si>
+  <si>
+    <t>http://data.test.pdok.nl/catalogus/bag/id/concept/{toeleidingsbegrip}</t>
   </si>
 </sst>
 </file>
@@ -973,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,7 +1044,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>19</v>
@@ -1026,7 +1071,7 @@
       <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
@@ -1043,7 +1088,7 @@
       <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
@@ -1061,10 +1106,10 @@
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1078,7 +1123,7 @@
         <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1103,24 +1148,24 @@
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>81</v>
+        <v>167</v>
+      </c>
+      <c r="E9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1128,10 +1173,13 @@
         <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1139,10 +1187,10 @@
         <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>82</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1150,10 +1198,10 @@
         <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1161,10 +1209,10 @@
         <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1172,10 +1220,10 @@
         <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1183,10 +1231,10 @@
         <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1194,10 +1242,10 @@
         <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1205,188 +1253,234 @@
         <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" t="s">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>88</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>81</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" t="s">
-        <v>66</v>
+        <v>181</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>183</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
-        <v>3</v>
+        <v>185</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>82</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D44" s="2"/>
+      <c r="A32" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1"/>
     <hyperlink ref="D6" r:id="rId2" location="{eigenschap}"/>
-    <hyperlink ref="D12" r:id="rId3"/>
-    <hyperlink ref="D13" r:id="rId4"/>
-    <hyperlink ref="D14" r:id="rId5"/>
-    <hyperlink ref="D15" r:id="rId6"/>
-    <hyperlink ref="D16" r:id="rId7"/>
-    <hyperlink ref="D18" r:id="rId8"/>
-    <hyperlink ref="D19" r:id="rId9"/>
-    <hyperlink ref="D9" r:id="rId10"/>
+    <hyperlink ref="D13" r:id="rId3" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{specialisatie}"/>
+    <hyperlink ref="D14" r:id="rId4" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{generalisatie}"/>
+    <hyperlink ref="D15" r:id="rId5" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{onderdeel}"/>
+    <hyperlink ref="D16" r:id="rId6" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{bestaatuit}"/>
+    <hyperlink ref="D17" r:id="rId7" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{betrekkingop}"/>
+    <hyperlink ref="D23" r:id="rId8" display="http://localhost:8080/catalogus/dso/id/collection/{collectie}"/>
+    <hyperlink ref="D24" r:id="rId9" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
+    <hyperlink ref="D10" r:id="rId10" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
     <hyperlink ref="D7" r:id="rId11" location="{eigenschap}"/>
     <hyperlink ref="D2" r:id="rId12" location="{klasse}"/>
-    <hyperlink ref="D10" r:id="rId13" location="{subklasse}"/>
-    <hyperlink ref="D11" r:id="rId14"/>
-    <hyperlink ref="D22" r:id="rId15"/>
-    <hyperlink ref="D17" r:id="rId16"/>
-    <hyperlink ref="D8" r:id="rId17" location="{eigenschap}"/>
-    <hyperlink ref="D20" r:id="rId18"/>
-    <hyperlink ref="D21" r:id="rId19"/>
-    <hyperlink ref="D3" r:id="rId20" location="{eigenschap}"/>
-    <hyperlink ref="D4" r:id="rId21" location="{eigenschap}"/>
-    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D12" r:id="rId13" display="http://localhost:8080/catalogus/dso/id/concept/{bron}"/>
+    <hyperlink ref="D29" r:id="rId14"/>
+    <hyperlink ref="D28" r:id="rId15" display="http://localhost:8080/catalogus/dso/id/concept/{bron}"/>
+    <hyperlink ref="D26" r:id="rId16" display="http://localhost:8080/catalogus/dso/id/collection/{waardelijst}"/>
+    <hyperlink ref="D27" r:id="rId17" display="http://localhost:8080/catalogus/dso/id/collection/{collectie}"/>
+    <hyperlink ref="D32" r:id="rId18" display="http://data.test.pdok.nl/catalogus/dso/id/concept/{toeleidingsbegrip}"/>
+    <hyperlink ref="D33" r:id="rId19" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
+    <hyperlink ref="D8" r:id="rId20"/>
+    <hyperlink ref="D11" r:id="rId21" display="http://data.test.pdok.nl/catalogus/dso/id/concept/{domein}"/>
+    <hyperlink ref="D25" r:id="rId22" display="http://data.test.pdok.nl/catalogus/dso/id/concept/{domein}"/>
+    <hyperlink ref="D18" r:id="rId23" display="http://data.test.pdok.nl/catalogus/dso/id/concept/{focus}"/>
+    <hyperlink ref="D19" r:id="rId24" display="http://data.test.pdok.nl/catalogus/dso/id/concept/{hetzelfde}"/>
+    <hyperlink ref="D20" r:id="rId25" display="http://data.test.pdok.nl/catalogus/dso/id/concept/{gerelateerd}"/>
+    <hyperlink ref="D21" r:id="rId26" display="http://data.test.pdok.nl/catalogus/dso/id/concept/{brederdan}"/>
+    <hyperlink ref="D22" r:id="rId27" display="http://data.test.pdok.nl/catalogus/dso/id/concept/{engerdan}"/>
+    <hyperlink ref="D30" r:id="rId28" display="http://data.test.pdok.nl/catalogus/dso/id/concept/{domein}"/>
+    <hyperlink ref="D9" r:id="rId29" location="{eigenschap}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
 
@@ -1395,7 +1489,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,16 +1658,16 @@
         <v>69</v>
       </c>
       <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
         <v>90</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" t="s">
         <v>91</v>
-      </c>
-      <c r="D9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1700,16 +1794,16 @@
         <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
         <v>94</v>
-      </c>
-      <c r="E17" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1851,10 +1945,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>17</v>
@@ -1868,10 +1962,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>10</v>
@@ -1885,7 +1979,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>27</v>
@@ -1902,7 +1996,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>58</v>
@@ -1919,7 +2013,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>65</v>
@@ -1936,7 +2030,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>23</v>
@@ -1953,10 +2047,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>10</v>
@@ -1970,7 +2064,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>74</v>
@@ -1987,7 +2081,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>9</v>
@@ -2004,7 +2098,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>27</v>
@@ -2021,7 +2115,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>34</v>
@@ -2033,7 +2127,7 @@
         <v>34</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2074,8 +2168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2117,7 +2211,7 @@
         <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>33</v>
@@ -2141,28 +2235,28 @@
         <v>53</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2"/>
       <c r="D2" s="5"/>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
-      <c r="I2" s="2" t="s">
-        <v>147</v>
+      <c r="I2" t="s">
+        <v>145</v>
       </c>
       <c r="J2"/>
       <c r="K2" s="5"/>
@@ -2170,29 +2264,29 @@
       <c r="M2"/>
       <c r="N2" s="5"/>
       <c r="O2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P2"/>
     </row>
     <row r="3" spans="1:16" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C3"/>
       <c r="D3" s="5"/>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
-      <c r="I3" s="2" t="s">
-        <v>148</v>
+      <c r="I3" t="s">
+        <v>146</v>
       </c>
       <c r="J3"/>
       <c r="K3" s="5"/>
@@ -2200,29 +2294,29 @@
       <c r="M3"/>
       <c r="N3" s="5"/>
       <c r="O3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P3"/>
     </row>
     <row r="4" spans="1:16" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C4"/>
       <c r="D4" s="5"/>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="I4" s="2" t="s">
-        <v>148</v>
+      <c r="I4" t="s">
+        <v>146</v>
       </c>
       <c r="J4"/>
       <c r="K4" s="5"/>
@@ -2230,29 +2324,29 @@
       <c r="M4"/>
       <c r="N4" s="5"/>
       <c r="O4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P4"/>
     </row>
     <row r="5" spans="1:16" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C5"/>
       <c r="D5" s="5"/>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
-      <c r="I5" s="2" t="s">
-        <v>153</v>
+      <c r="I5" t="s">
+        <v>151</v>
       </c>
       <c r="J5"/>
       <c r="K5" s="5"/>
@@ -2264,23 +2358,23 @@
     </row>
     <row r="6" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C6"/>
       <c r="D6" s="5"/>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="I6" s="2" t="s">
-        <v>147</v>
+      <c r="I6" t="s">
+        <v>145</v>
       </c>
       <c r="J6"/>
       <c r="K6" s="5"/>
@@ -2288,29 +2382,29 @@
       <c r="M6"/>
       <c r="N6" s="5"/>
       <c r="O6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P6"/>
     </row>
     <row r="7" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C7"/>
       <c r="D7" s="5"/>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="I7" s="2" t="s">
-        <v>154</v>
+      <c r="I7" t="s">
+        <v>152</v>
       </c>
       <c r="J7"/>
       <c r="K7" s="5"/>
@@ -2318,24 +2412,24 @@
       <c r="M7"/>
       <c r="N7" s="5"/>
       <c r="O7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P7"/>
     </row>
     <row r="8" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C8"/>
       <c r="D8" s="5"/>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -2346,24 +2440,24 @@
       <c r="M8"/>
       <c r="N8" s="5"/>
       <c r="O8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P8"/>
     </row>
     <row r="9" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C9"/>
       <c r="D9" s="5"/>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -2374,24 +2468,24 @@
       <c r="M9"/>
       <c r="N9" s="5"/>
       <c r="O9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P9"/>
     </row>
     <row r="10" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C10"/>
       <c r="D10" s="5"/>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -2402,24 +2496,24 @@
       <c r="M10"/>
       <c r="N10" s="5"/>
       <c r="O10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P10"/>
     </row>
     <row r="11" spans="1:16" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C11"/>
       <c r="D11" s="5"/>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -2430,24 +2524,24 @@
       <c r="M11"/>
       <c r="N11" s="5"/>
       <c r="O11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P11"/>
     </row>
     <row r="12" spans="1:16" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C12"/>
       <c r="D12" s="5"/>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -2458,29 +2552,29 @@
       <c r="M12"/>
       <c r="N12" s="5"/>
       <c r="O12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P12"/>
     </row>
     <row r="13" spans="1:16" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C13"/>
       <c r="D13" s="5"/>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
-      <c r="I13" s="2" t="s">
-        <v>147</v>
+      <c r="I13" t="s">
+        <v>145</v>
       </c>
       <c r="J13"/>
       <c r="K13" s="5"/>
@@ -2488,29 +2582,29 @@
       <c r="M13"/>
       <c r="N13" s="5"/>
       <c r="O13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P13"/>
     </row>
     <row r="14" spans="1:16" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C14"/>
       <c r="D14" s="5"/>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
-      <c r="I14" s="2" t="s">
-        <v>154</v>
+      <c r="I14" t="s">
+        <v>152</v>
       </c>
       <c r="J14"/>
       <c r="K14" s="5"/>
@@ -2522,23 +2616,23 @@
     </row>
     <row r="15" spans="1:16" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C15"/>
       <c r="D15" s="5"/>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
-      <c r="I15" s="2" t="s">
-        <v>148</v>
+      <c r="I15" t="s">
+        <v>146</v>
       </c>
       <c r="J15"/>
       <c r="K15" s="5"/>
@@ -2550,23 +2644,23 @@
     </row>
     <row r="16" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C16"/>
       <c r="D16" s="5"/>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
-      <c r="I16" s="2" t="s">
-        <v>147</v>
+      <c r="I16" t="s">
+        <v>145</v>
       </c>
       <c r="J16"/>
       <c r="K16" s="5"/>
@@ -2574,29 +2668,29 @@
       <c r="M16"/>
       <c r="N16" s="5"/>
       <c r="O16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P16"/>
     </row>
     <row r="17" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C17"/>
       <c r="D17" s="5"/>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
-      <c r="I17" s="2" t="s">
-        <v>150</v>
+      <c r="I17" t="s">
+        <v>148</v>
       </c>
       <c r="J17"/>
       <c r="K17" s="5"/>
@@ -2608,23 +2702,23 @@
     </row>
     <row r="18" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C18"/>
       <c r="D18" s="5"/>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
-      <c r="I18" s="2" t="s">
-        <v>156</v>
+      <c r="I18" t="s">
+        <v>154</v>
       </c>
       <c r="J18"/>
       <c r="K18" s="5"/>
@@ -2636,23 +2730,23 @@
     </row>
     <row r="19" spans="1:22" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C19"/>
       <c r="D19" s="5"/>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
-      <c r="I19" s="2" t="s">
-        <v>147</v>
+      <c r="I19" t="s">
+        <v>145</v>
       </c>
       <c r="J19"/>
       <c r="K19" s="5"/>
@@ -2670,115 +2764,95 @@
     </row>
     <row r="20" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
+      </c>
+      <c r="I20" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>144</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
+      </c>
+      <c r="I21" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F22" t="s">
-        <v>144</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
+      </c>
+      <c r="I22" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F23" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I23" t="s">
         <v>145</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
+      </c>
+      <c r="I24" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" display="http://wetten.overheid.nl/jci1.3:c:BWBR0023466"/>
-    <hyperlink ref="I3" r:id="rId2" display="https://zoek.officielebekendmakingen.nl/kst-30968-3.html"/>
-    <hyperlink ref="I13" r:id="rId3" display="http://wetten.overheid.nl/jci1.3:c:BWBR0023466"/>
-    <hyperlink ref="I14" r:id="rId4" display="https://zoek.officielebekendmakingen.nl/kst-31726-2.html"/>
-    <hyperlink ref="I15" r:id="rId5" display="https://zoek.officielebekendmakingen.nl/kst-30968-3.html"/>
-    <hyperlink ref="I16" r:id="rId6" display="http://wetten.overheid.nl/jci1.3:c:BWBR0023466"/>
-    <hyperlink ref="I17" r:id="rId7" display="https://zoek.officielebekendmakingen.nl/kst-31726-7.html"/>
-    <hyperlink ref="I18" r:id="rId8" display="https://www.nen.nl/NEN-Shop/Norm/NEN-25802007-nl.htm"/>
-    <hyperlink ref="I19" r:id="rId9" display="http://wetten.overheid.nl/jci1.3:c:BWBR0023466"/>
-    <hyperlink ref="I20" r:id="rId10" display="https://zoek.officielebekendmakingen.nl/kst-30968-3.html"/>
-    <hyperlink ref="I21" r:id="rId11" display="http://wetten.overheid.nl/jci1.3:c:BWBR0023466"/>
-    <hyperlink ref="I22" r:id="rId12" display="https://zoek.officielebekendmakingen.nl/kst-30968-3.html"/>
-    <hyperlink ref="I23" r:id="rId13" display="http://wetten.overheid.nl/jci1.3:c:BWBR0023466"/>
-    <hyperlink ref="I24" r:id="rId14" display="https://zoek.officielebekendmakingen.nl/kst-30968-3.html"/>
-    <hyperlink ref="I4" r:id="rId15" display="https://zoek.officielebekendmakingen.nl/kst-30968-3.html"/>
-    <hyperlink ref="I5" r:id="rId16" display="http://wetten.overheid.nl/BWBR0030461"/>
-    <hyperlink ref="I6" r:id="rId17" display="http://wetten.overheid.nl/jci1.3:c:BWBR0023466"/>
-    <hyperlink ref="I7" r:id="rId18" display="https://zoek.officielebekendmakingen.nl/kst-31726-2.html"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2825,144 +2899,144 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G2" s="8">
         <v>42933</v>
       </c>
       <c r="H2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" t="s">
         <v>104</v>
-      </c>
-      <c r="D3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3019,7 +3093,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>27</v>
@@ -3033,13 +3107,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3049,211 +3123,238 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" customWidth="1"/>
+    <col min="5" max="5" width="58.140625" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>147</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
         <v>97</v>
       </c>
-      <c r="C2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G4" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>148</v>
       </c>
-      <c r="B3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>149</v>
       </c>
-      <c r="B4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="2" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="2" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="2" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" display="https://www.nen.nl/NEN-Shop/Norm/NEN-25802007-nl.htm"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://zoek.officielebekendmakingen.nl/kst-30968-3.html"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://www.parlementairemonitor.nl/9353000/1/j9vvij5epmj1ey0/vk57jvazlov8"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://zoek.officielebekendmakingen.nl/kst-31726-7.html"/>
-    <hyperlink ref="A7" r:id="rId5" display="http://www.kadaster.nl/web/artikel/download/BAG-stappenplan-afbakenen-studentencomplexen.htm"/>
-    <hyperlink ref="A8" r:id="rId6" display="http://www.omg.org/spec/UML/ISO/19505-1/PDF/"/>
-    <hyperlink ref="A10" r:id="rId7" display="https://zoek.officielebekendmakingen.nl/kst-31726-2.html"/>
-    <hyperlink ref="A2" r:id="rId8" display="http://wetten.overheid.nl/jci1.3:c:BWBR0023466"/>
-    <hyperlink ref="E5" r:id="rId9"/>
-    <hyperlink ref="E3" r:id="rId10" display="https://zoek.officielebekendmakingen.nl/kst-30968-3.html"/>
-    <hyperlink ref="E4" r:id="rId11"/>
-    <hyperlink ref="E6" r:id="rId12" display="https://zoek.officielebekendmakingen.nl/kst-31726-7.html"/>
-    <hyperlink ref="E7" r:id="rId13"/>
-    <hyperlink ref="E8" r:id="rId14"/>
-    <hyperlink ref="E10" r:id="rId15" display="https://zoek.officielebekendmakingen.nl/kst-31726-2.html"/>
-    <hyperlink ref="E2" r:id="rId16" display="http://wetten.overheid.nl/jci1.3:c:BWBR0023466"/>
-    <hyperlink ref="E9" r:id="rId17" display="http://wetten.overheid.nl/BWBR0030461"/>
+    <hyperlink ref="G5" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2" display="https://zoek.officielebekendmakingen.nl/kst-30968-3.html"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G6" r:id="rId4" display="https://zoek.officielebekendmakingen.nl/kst-31726-7.html"/>
+    <hyperlink ref="G7" r:id="rId5"/>
+    <hyperlink ref="G8" r:id="rId6"/>
+    <hyperlink ref="G10" r:id="rId7" display="https://zoek.officielebekendmakingen.nl/kst-31726-2.html"/>
+    <hyperlink ref="G2" r:id="rId8" display="http://wetten.overheid.nl/jci1.3:c:BWBR0023466"/>
+    <hyperlink ref="G9" r:id="rId9" display="http://wetten.overheid.nl/BWBR0030461"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/catalogusdata/BAG/Beslisboom VBO BAG T.xlsx
+++ b/catalogusdata/BAG/Beslisboom VBO BAG T.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="URI schema" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="191">
   <si>
     <t>tabblad</t>
   </si>
@@ -629,6 +629,9 @@
   </si>
   <si>
     <t>http://data.test.pdok.nl/catalogus/bag/id/concept/{toeleidingsbegrip}</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/bp4mc2/bp4mc2/master/catalogusdata/BAG/voorbeelden/{voorbeeld}</t>
   </si>
 </sst>
 </file>
@@ -695,14 +698,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -710,9 +709,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1018,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,16 +1312,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>87</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1333,10 +1326,13 @@
         <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1344,24 +1340,21 @@
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>176</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1369,24 +1362,24 @@
         <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1394,10 +1387,13 @@
         <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1405,10 +1401,10 @@
         <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1416,24 +1412,21 @@
         <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>188</v>
-      </c>
-      <c r="C32" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1441,9 +1434,23 @@
         <v>187</v>
       </c>
       <c r="B33" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1456,31 +1463,32 @@
     <hyperlink ref="D15" r:id="rId5" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{onderdeel}"/>
     <hyperlink ref="D16" r:id="rId6" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{bestaatuit}"/>
     <hyperlink ref="D17" r:id="rId7" display="http://localhost:8080/catalogus/dsoprogramma/id/begrip/{betrekkingop}"/>
-    <hyperlink ref="D23" r:id="rId8" display="http://localhost:8080/catalogus/dso/id/collection/{collectie}"/>
-    <hyperlink ref="D24" r:id="rId9" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
+    <hyperlink ref="D24" r:id="rId8" display="http://localhost:8080/catalogus/dso/id/collection/{collectie}"/>
+    <hyperlink ref="D25" r:id="rId9" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
     <hyperlink ref="D10" r:id="rId10" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
     <hyperlink ref="D7" r:id="rId11" location="{eigenschap}"/>
     <hyperlink ref="D2" r:id="rId12" location="{klasse}"/>
     <hyperlink ref="D12" r:id="rId13" display="http://localhost:8080/catalogus/dso/id/concept/{bron}"/>
-    <hyperlink ref="D29" r:id="rId14"/>
-    <hyperlink ref="D28" r:id="rId15" display="http://localhost:8080/catalogus/dso/id/concept/{bron}"/>
-    <hyperlink ref="D26" r:id="rId16" display="http://localhost:8080/catalogus/dso/id/collection/{waardelijst}"/>
-    <hyperlink ref="D27" r:id="rId17" display="http://localhost:8080/catalogus/dso/id/collection/{collectie}"/>
-    <hyperlink ref="D32" r:id="rId18" display="http://data.test.pdok.nl/catalogus/dso/id/concept/{toeleidingsbegrip}"/>
-    <hyperlink ref="D33" r:id="rId19" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
+    <hyperlink ref="D30" r:id="rId14"/>
+    <hyperlink ref="D29" r:id="rId15" display="http://localhost:8080/catalogus/dso/id/concept/{bron}"/>
+    <hyperlink ref="D27" r:id="rId16" display="http://localhost:8080/catalogus/dso/id/collection/{waardelijst}"/>
+    <hyperlink ref="D28" r:id="rId17" display="http://localhost:8080/catalogus/dso/id/collection/{collectie}"/>
+    <hyperlink ref="D33" r:id="rId18" display="http://data.test.pdok.nl/catalogus/dso/id/concept/{toeleidingsbegrip}"/>
+    <hyperlink ref="D34" r:id="rId19" display="http://localhost:8080/dsoprogramma/id/begrip/{begrip}"/>
     <hyperlink ref="D8" r:id="rId20"/>
     <hyperlink ref="D11" r:id="rId21" display="http://data.test.pdok.nl/catalogus/dso/id/concept/{domein}"/>
-    <hyperlink ref="D25" r:id="rId22" display="http://data.test.pdok.nl/catalogus/dso/id/concept/{domein}"/>
+    <hyperlink ref="D26" r:id="rId22" display="http://data.test.pdok.nl/catalogus/dso/id/concept/{domein}"/>
     <hyperlink ref="D18" r:id="rId23" display="http://data.test.pdok.nl/catalogus/dso/id/concept/{focus}"/>
     <hyperlink ref="D19" r:id="rId24" display="http://data.test.pdok.nl/catalogus/dso/id/concept/{hetzelfde}"/>
     <hyperlink ref="D20" r:id="rId25" display="http://data.test.pdok.nl/catalogus/dso/id/concept/{gerelateerd}"/>
     <hyperlink ref="D21" r:id="rId26" display="http://data.test.pdok.nl/catalogus/dso/id/concept/{brederdan}"/>
     <hyperlink ref="D22" r:id="rId27" display="http://data.test.pdok.nl/catalogus/dso/id/concept/{engerdan}"/>
-    <hyperlink ref="D30" r:id="rId28" display="http://data.test.pdok.nl/catalogus/dso/id/concept/{domein}"/>
+    <hyperlink ref="D31" r:id="rId28" display="http://data.test.pdok.nl/catalogus/dso/id/concept/{domein}"/>
     <hyperlink ref="D9" r:id="rId29" location="{eigenschap}"/>
+    <hyperlink ref="D23" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
 
@@ -1488,7 +1496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -1522,20 +1530,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1807,337 +1815,337 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-    </row>
-    <row r="56" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="56" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -2145,18 +2153,18 @@
       <c r="E56"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2168,22 +2176,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="30.5703125" customWidth="1"/>
-    <col min="4" max="4" width="60" style="5" customWidth="1"/>
+    <col min="4" max="4" width="60" style="3" customWidth="1"/>
     <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="8" width="31" customWidth="1"/>
     <col min="9" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="28.85546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="28.85546875" style="3" customWidth="1"/>
     <col min="13" max="13" width="18.42578125" customWidth="1"/>
-    <col min="14" max="14" width="28" style="5" customWidth="1"/>
+    <col min="14" max="14" width="28" style="3" customWidth="1"/>
     <col min="15" max="15" width="56.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.140625" customWidth="1"/>
   </cols>
@@ -2198,7 +2206,7 @@
       <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -2219,26 +2227,26 @@
       <c r="J1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>44</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>50</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -2246,11 +2254,11 @@
         <v>114</v>
       </c>
       <c r="C2"/>
-      <c r="D2" s="5"/>
+      <c r="D2"/>
       <c r="E2" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" t="s">
         <v>136</v>
       </c>
       <c r="G2"/>
@@ -2259,16 +2267,16 @@
         <v>145</v>
       </c>
       <c r="J2"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="K2"/>
+      <c r="L2"/>
       <c r="M2"/>
-      <c r="N2" s="5"/>
+      <c r="N2"/>
       <c r="O2" t="s">
         <v>115</v>
       </c>
       <c r="P2"/>
     </row>
-    <row r="3" spans="1:16" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -2276,11 +2284,11 @@
         <v>114</v>
       </c>
       <c r="C3"/>
-      <c r="D3" s="5"/>
+      <c r="D3"/>
       <c r="E3" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" t="s">
         <v>136</v>
       </c>
       <c r="G3"/>
@@ -2289,16 +2297,16 @@
         <v>146</v>
       </c>
       <c r="J3"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="K3"/>
+      <c r="L3"/>
       <c r="M3"/>
-      <c r="N3" s="5"/>
+      <c r="N3"/>
       <c r="O3" t="s">
         <v>116</v>
       </c>
       <c r="P3"/>
     </row>
-    <row r="4" spans="1:16" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -2306,11 +2314,11 @@
         <v>117</v>
       </c>
       <c r="C4"/>
-      <c r="D4" s="5"/>
+      <c r="D4"/>
       <c r="E4" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" t="s">
         <v>153</v>
       </c>
       <c r="G4"/>
@@ -2319,16 +2327,16 @@
         <v>146</v>
       </c>
       <c r="J4"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="K4"/>
+      <c r="L4"/>
       <c r="M4"/>
-      <c r="N4" s="5"/>
+      <c r="N4"/>
       <c r="O4" t="s">
         <v>118</v>
       </c>
       <c r="P4"/>
     </row>
-    <row r="5" spans="1:16" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -2336,11 +2344,11 @@
         <v>117</v>
       </c>
       <c r="C5"/>
-      <c r="D5" s="5"/>
+      <c r="D5"/>
       <c r="E5" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" t="s">
         <v>153</v>
       </c>
       <c r="G5"/>
@@ -2349,14 +2357,14 @@
         <v>151</v>
       </c>
       <c r="J5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="K5"/>
+      <c r="L5"/>
       <c r="M5"/>
-      <c r="N5" s="5"/>
+      <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
     </row>
-    <row r="6" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -2364,11 +2372,11 @@
         <v>120</v>
       </c>
       <c r="C6"/>
-      <c r="D6" s="5"/>
+      <c r="D6"/>
       <c r="E6" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" t="s">
         <v>137</v>
       </c>
       <c r="G6"/>
@@ -2377,16 +2385,16 @@
         <v>145</v>
       </c>
       <c r="J6"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="K6"/>
+      <c r="L6"/>
       <c r="M6"/>
-      <c r="N6" s="5"/>
+      <c r="N6"/>
       <c r="O6" t="s">
         <v>88</v>
       </c>
       <c r="P6"/>
     </row>
-    <row r="7" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -2394,11 +2402,11 @@
         <v>120</v>
       </c>
       <c r="C7"/>
-      <c r="D7" s="5"/>
+      <c r="D7"/>
       <c r="E7" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s">
         <v>137</v>
       </c>
       <c r="G7"/>
@@ -2407,16 +2415,16 @@
         <v>152</v>
       </c>
       <c r="J7"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="K7"/>
+      <c r="L7"/>
       <c r="M7"/>
-      <c r="N7" s="5"/>
+      <c r="N7"/>
       <c r="O7" t="s">
         <v>121</v>
       </c>
       <c r="P7"/>
     </row>
-    <row r="8" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -2424,27 +2432,27 @@
         <v>120</v>
       </c>
       <c r="C8"/>
-      <c r="D8" s="5"/>
+      <c r="D8"/>
       <c r="E8" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" t="s">
         <v>137</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="K8"/>
+      <c r="L8"/>
       <c r="M8"/>
-      <c r="N8" s="5"/>
+      <c r="N8"/>
       <c r="O8" t="s">
         <v>122</v>
       </c>
       <c r="P8"/>
     </row>
-    <row r="9" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>105</v>
       </c>
@@ -2452,27 +2460,27 @@
         <v>120</v>
       </c>
       <c r="C9"/>
-      <c r="D9" s="5"/>
+      <c r="D9"/>
       <c r="E9" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" t="s">
         <v>137</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="K9"/>
+      <c r="L9"/>
       <c r="M9"/>
-      <c r="N9" s="5"/>
+      <c r="N9"/>
       <c r="O9" t="s">
         <v>123</v>
       </c>
       <c r="P9"/>
     </row>
-    <row r="10" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -2480,27 +2488,27 @@
         <v>120</v>
       </c>
       <c r="C10"/>
-      <c r="D10" s="5"/>
+      <c r="D10"/>
       <c r="E10" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" t="s">
         <v>137</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="K10"/>
+      <c r="L10"/>
       <c r="M10"/>
-      <c r="N10" s="5"/>
+      <c r="N10"/>
       <c r="O10" t="s">
         <v>124</v>
       </c>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:16" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -2508,27 +2516,27 @@
         <v>126</v>
       </c>
       <c r="C11"/>
-      <c r="D11" s="5"/>
+      <c r="D11"/>
       <c r="E11" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" t="s">
         <v>138</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="K11"/>
+      <c r="L11"/>
       <c r="M11"/>
-      <c r="N11" s="5"/>
+      <c r="N11"/>
       <c r="O11" t="s">
         <v>127</v>
       </c>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:16" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -2536,27 +2544,27 @@
         <v>126</v>
       </c>
       <c r="C12"/>
-      <c r="D12" s="5"/>
+      <c r="D12"/>
       <c r="E12" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" t="s">
         <v>138</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="K12"/>
+      <c r="L12"/>
       <c r="M12"/>
-      <c r="N12" s="5"/>
+      <c r="N12"/>
       <c r="O12" t="s">
         <v>128</v>
       </c>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:16" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>107</v>
       </c>
@@ -2564,11 +2572,11 @@
         <v>129</v>
       </c>
       <c r="C13"/>
-      <c r="D13" s="5"/>
+      <c r="D13"/>
       <c r="E13" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" t="s">
         <v>139</v>
       </c>
       <c r="G13"/>
@@ -2577,16 +2585,16 @@
         <v>145</v>
       </c>
       <c r="J13"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="K13"/>
+      <c r="L13"/>
       <c r="M13"/>
-      <c r="N13" s="5"/>
+      <c r="N13"/>
       <c r="O13" t="s">
         <v>130</v>
       </c>
       <c r="P13"/>
     </row>
-    <row r="14" spans="1:16" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>107</v>
       </c>
@@ -2594,11 +2602,11 @@
         <v>129</v>
       </c>
       <c r="C14"/>
-      <c r="D14" s="5"/>
+      <c r="D14"/>
       <c r="E14" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" t="s">
         <v>139</v>
       </c>
       <c r="G14"/>
@@ -2607,14 +2615,14 @@
         <v>152</v>
       </c>
       <c r="J14"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="K14"/>
+      <c r="L14"/>
       <c r="M14"/>
-      <c r="N14" s="5"/>
+      <c r="N14"/>
       <c r="O14"/>
       <c r="P14"/>
     </row>
-    <row r="15" spans="1:16" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>107</v>
       </c>
@@ -2622,11 +2630,11 @@
         <v>129</v>
       </c>
       <c r="C15"/>
-      <c r="D15" s="5"/>
+      <c r="D15"/>
       <c r="E15" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" t="s">
         <v>139</v>
       </c>
       <c r="G15"/>
@@ -2635,14 +2643,14 @@
         <v>146</v>
       </c>
       <c r="J15"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
+      <c r="K15"/>
+      <c r="L15"/>
       <c r="M15"/>
-      <c r="N15" s="5"/>
+      <c r="N15"/>
       <c r="O15"/>
       <c r="P15"/>
     </row>
-    <row r="16" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>108</v>
       </c>
@@ -2650,11 +2658,11 @@
         <v>131</v>
       </c>
       <c r="C16"/>
-      <c r="D16" s="5"/>
+      <c r="D16"/>
       <c r="E16" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" t="s">
         <v>140</v>
       </c>
       <c r="G16"/>
@@ -2663,16 +2671,16 @@
         <v>145</v>
       </c>
       <c r="J16"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="K16"/>
+      <c r="L16"/>
       <c r="M16"/>
-      <c r="N16" s="5"/>
+      <c r="N16"/>
       <c r="O16" t="s">
         <v>132</v>
       </c>
       <c r="P16"/>
     </row>
-    <row r="17" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>108</v>
       </c>
@@ -2680,11 +2688,11 @@
         <v>131</v>
       </c>
       <c r="C17"/>
-      <c r="D17" s="5"/>
+      <c r="D17"/>
       <c r="E17" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" t="s">
         <v>140</v>
       </c>
       <c r="G17"/>
@@ -2693,14 +2701,14 @@
         <v>148</v>
       </c>
       <c r="J17"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+      <c r="K17"/>
+      <c r="L17"/>
       <c r="M17"/>
-      <c r="N17" s="5"/>
+      <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
     </row>
-    <row r="18" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>108</v>
       </c>
@@ -2708,11 +2716,11 @@
         <v>131</v>
       </c>
       <c r="C18"/>
-      <c r="D18" s="5"/>
+      <c r="D18"/>
       <c r="E18" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" t="s">
         <v>140</v>
       </c>
       <c r="G18"/>
@@ -2721,14 +2729,14 @@
         <v>154</v>
       </c>
       <c r="J18"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
+      <c r="K18"/>
+      <c r="L18"/>
       <c r="M18"/>
-      <c r="N18" s="5"/>
+      <c r="N18"/>
       <c r="O18"/>
       <c r="P18"/>
     </row>
-    <row r="19" spans="1:22" s="7" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>109</v>
       </c>
@@ -2736,11 +2744,11 @@
         <v>133</v>
       </c>
       <c r="C19"/>
-      <c r="D19" s="5"/>
+      <c r="D19"/>
       <c r="E19" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" t="s">
         <v>141</v>
       </c>
       <c r="G19"/>
@@ -2749,10 +2757,10 @@
         <v>145</v>
       </c>
       <c r="J19"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
+      <c r="K19"/>
+      <c r="L19"/>
       <c r="M19"/>
-      <c r="N19" s="5"/>
+      <c r="N19"/>
       <c r="O19"/>
       <c r="P19"/>
       <c r="Q19"/>
@@ -2762,22 +2770,26 @@
       <c r="U19"/>
       <c r="V19"/>
     </row>
-    <row r="20" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>109</v>
       </c>
       <c r="B20" t="s">
         <v>133</v>
       </c>
+      <c r="D20"/>
       <c r="E20" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" t="s">
         <v>141</v>
       </c>
       <c r="I20" t="s">
         <v>146</v>
       </c>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="N20"/>
     </row>
     <row r="21" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2786,6 +2798,7 @@
       <c r="B21" t="s">
         <v>134</v>
       </c>
+      <c r="D21"/>
       <c r="E21" t="s">
         <v>100</v>
       </c>
@@ -2795,6 +2808,9 @@
       <c r="I21" t="s">
         <v>145</v>
       </c>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="N21"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -2803,6 +2819,7 @@
       <c r="B22" t="s">
         <v>134</v>
       </c>
+      <c r="D22"/>
       <c r="E22" t="s">
         <v>100</v>
       </c>
@@ -2812,40 +2829,51 @@
       <c r="I22" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="N22"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>111</v>
       </c>
       <c r="B23" t="s">
         <v>135</v>
       </c>
+      <c r="D23"/>
       <c r="E23" t="s">
         <v>100</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" t="s">
         <v>143</v>
       </c>
       <c r="I23" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="N23"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>111</v>
       </c>
       <c r="B24" t="s">
         <v>135</v>
       </c>
+      <c r="D24"/>
       <c r="E24" t="s">
         <v>100</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" t="s">
         <v>143</v>
       </c>
       <c r="I24" t="s">
         <v>146</v>
       </c>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="N24"/>
     </row>
     <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2910,7 +2938,7 @@
       <c r="F2" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="6">
         <v>42933</v>
       </c>
       <c r="H2" t="s">
@@ -3034,40 +3062,40 @@
       <c r="D10" t="s">
         <v>100</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="6"/>
       <c r="H10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G11" s="8"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G12" s="8"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G13" s="8"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G14" s="8"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G15" s="8"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G16" s="8"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="8"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="8"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="8"/>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G20" s="8"/>
+      <c r="G20" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3086,7 +3114,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3123,9 +3151,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
@@ -3136,10 +3164,9 @@
     <col min="3" max="3" width="48.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.42578125" customWidth="1"/>
     <col min="5" max="5" width="58.140625" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -3156,13 +3183,10 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -3178,11 +3202,11 @@
       <c r="E2" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>146</v>
       </c>
@@ -3198,11 +3222,11 @@
       <c r="E3" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>147</v>
       </c>
@@ -3218,11 +3242,11 @@
       <c r="E4" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>154</v>
       </c>
@@ -3238,11 +3262,11 @@
       <c r="E5" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>148</v>
       </c>
@@ -3258,11 +3282,11 @@
       <c r="E6" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>149</v>
       </c>
@@ -3278,11 +3302,11 @@
       <c r="E7" t="s">
         <v>112</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>150</v>
       </c>
@@ -3298,11 +3322,11 @@
       <c r="E8" t="s">
         <v>113</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>151</v>
       </c>
@@ -3318,11 +3342,11 @@
       <c r="E9" t="s">
         <v>119</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -3338,21 +3362,21 @@
       <c r="E10" t="s">
         <v>125</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2" display="https://zoek.officielebekendmakingen.nl/kst-30968-3.html"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G6" r:id="rId4" display="https://zoek.officielebekendmakingen.nl/kst-31726-7.html"/>
-    <hyperlink ref="G7" r:id="rId5"/>
-    <hyperlink ref="G8" r:id="rId6"/>
-    <hyperlink ref="G10" r:id="rId7" display="https://zoek.officielebekendmakingen.nl/kst-31726-2.html"/>
-    <hyperlink ref="G2" r:id="rId8" display="http://wetten.overheid.nl/jci1.3:c:BWBR0023466"/>
-    <hyperlink ref="G9" r:id="rId9" display="http://wetten.overheid.nl/BWBR0030461"/>
+    <hyperlink ref="F5" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2" display="https://zoek.officielebekendmakingen.nl/kst-30968-3.html"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F6" r:id="rId4" display="https://zoek.officielebekendmakingen.nl/kst-31726-7.html"/>
+    <hyperlink ref="F7" r:id="rId5"/>
+    <hyperlink ref="F8" r:id="rId6"/>
+    <hyperlink ref="F10" r:id="rId7" display="https://zoek.officielebekendmakingen.nl/kst-31726-2.html"/>
+    <hyperlink ref="F2" r:id="rId8" display="http://wetten.overheid.nl/jci1.3:c:BWBR0023466"/>
+    <hyperlink ref="F9" r:id="rId9" display="http://wetten.overheid.nl/BWBR0030461"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
